--- a/All DAO result.v1.xlsx
+++ b/All DAO result.v1.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13013\Desktop\Dissertation\Zhengyu-Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A1F7F-17B8-4D1A-B216-8A3FA8F1EE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3739CF-3841-465E-9412-B8CF197FB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9880" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="34">
   <si>
     <t>DAO</t>
   </si>
@@ -104,6 +117,30 @@
   </si>
   <si>
     <t>RDNT</t>
+  </si>
+  <si>
+    <t>Eco_Treasury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users (lead to hetero)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gov (p value:0.188)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Develop (p: 0.141)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -142,12 +179,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -177,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -187,6 +242,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,14 +551,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" style="2" bestFit="1" customWidth="1"/>
@@ -548,7 +608,7 @@
       <c r="C3" s="2">
         <v>0.48426384529916477</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>4.1761413681641341E-7</v>
       </c>
       <c r="E3" s="2">
@@ -559,7 +619,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
@@ -582,7 +642,7 @@
       <c r="C5" s="2">
         <v>0.51520073804912836</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>5.239403877983189E-2</v>
       </c>
       <c r="E5" s="2">
@@ -593,7 +653,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
@@ -616,7 +676,7 @@
       <c r="C7" s="2">
         <v>-0.71945231605109183</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>2.066635631496919E-2</v>
       </c>
       <c r="E7" s="2">
@@ -627,7 +687,7 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2">
@@ -644,7 +704,7 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
@@ -667,7 +727,7 @@
       <c r="C10" s="2">
         <v>0.42518978959403259</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>0.13124474020703231</v>
       </c>
       <c r="E10" s="2">
@@ -746,7 +806,7 @@
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2">
@@ -797,7 +857,7 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2">
@@ -814,7 +874,7 @@
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2">
@@ -865,7 +925,7 @@
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="2">
@@ -933,7 +993,7 @@
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2">
@@ -950,7 +1010,7 @@
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="2">
@@ -967,7 +1027,7 @@
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="2">
@@ -1018,7 +1078,7 @@
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2">
@@ -1052,8 +1112,8 @@
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="2">
         <v>0.39557330598092483</v>
@@ -1069,8 +1129,8 @@
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
+      <c r="B34" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C34" s="2">
         <v>-0.64572677671237444</v>
@@ -1086,14 +1146,14 @@
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2">
         <v>0.24921052127370849</v>
       </c>
       <c r="D35" s="4">
-        <v>0.69740965103277086</v>
+        <v>0.69740965103277097</v>
       </c>
       <c r="E35" s="2">
         <v>0.64140872565009621</v>
@@ -1103,7 +1163,7 @@
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="2">
@@ -1120,8 +1180,8 @@
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>14</v>
+      <c r="B37" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C37" s="2">
         <v>0.48633961683899241</v>
@@ -1171,7 +1231,7 @@
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="2">
@@ -1205,7 +1265,7 @@
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="2">
@@ -1239,7 +1299,7 @@
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="2">
@@ -1358,7 +1418,7 @@
       <c r="A51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="2">
@@ -1409,8 +1469,8 @@
       <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>13</v>
+      <c r="B54" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C54" s="2">
         <v>0.22640024071212911</v>
@@ -1443,7 +1503,7 @@
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="2">
@@ -1477,7 +1537,7 @@
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="2">
@@ -1494,8 +1554,8 @@
       <c r="A59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>9</v>
+      <c r="B59" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C59" s="2">
         <v>0.33712496625919552</v>
@@ -1511,7 +1571,7 @@
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="2">
@@ -1528,7 +1588,7 @@
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="2">
@@ -1545,7 +1605,7 @@
       <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="2">
@@ -1562,7 +1622,7 @@
       <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="2">
@@ -1579,7 +1639,7 @@
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="2">
@@ -1630,7 +1690,7 @@
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="2">
@@ -1647,7 +1707,7 @@
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="2">
@@ -1664,7 +1724,7 @@
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="2">
@@ -1681,7 +1741,7 @@
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="2">
@@ -1698,7 +1758,7 @@
       <c r="A71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="2">
@@ -1783,7 +1843,7 @@
       <c r="A76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="2">
@@ -1800,7 +1860,7 @@
       <c r="A77" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="2">
@@ -1834,7 +1894,7 @@
       <c r="A79" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="2">
@@ -1885,7 +1945,7 @@
       <c r="A82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="2">
@@ -1936,7 +1996,7 @@
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="2">
@@ -1970,7 +2030,7 @@
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="2">
@@ -1987,7 +2047,7 @@
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="2">
@@ -2004,7 +2064,7 @@
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="2">
@@ -2021,7 +2081,7 @@
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="2">
@@ -2089,7 +2149,7 @@
       <c r="A94" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="2">
@@ -2106,7 +2166,7 @@
       <c r="A95" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="2">
@@ -2123,7 +2183,7 @@
       <c r="A96" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="2">
@@ -2140,7 +2200,7 @@
       <c r="A97" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="2">
@@ -2157,8 +2217,8 @@
       <c r="A98" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>12</v>
+      <c r="B98" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C98" s="2">
         <v>-0.69039498296785784</v>
@@ -2191,7 +2251,7 @@
       <c r="A100" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="2">
@@ -2259,7 +2319,7 @@
       <c r="A104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="2">
@@ -2276,7 +2336,7 @@
       <c r="A105" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="2">
@@ -2327,7 +2387,7 @@
       <c r="A108" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="2">
@@ -2344,7 +2404,7 @@
       <c r="A109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="2">
@@ -2412,7 +2472,7 @@
       <c r="A113" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="2">
@@ -2429,7 +2489,7 @@
       <c r="A114" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="2">
@@ -2446,7 +2506,7 @@
       <c r="A115" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="2">
@@ -2463,7 +2523,7 @@
       <c r="A116" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="2">
@@ -2480,7 +2540,7 @@
       <c r="A117" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C117" s="2">
@@ -2497,7 +2557,7 @@
       <c r="A118" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="2">
@@ -2548,7 +2608,7 @@
       <c r="A121" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="2">
@@ -2565,7 +2625,7 @@
       <c r="A122" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="2">
@@ -2582,7 +2642,7 @@
       <c r="A123" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="2">
@@ -2616,7 +2676,7 @@
       <c r="A125" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="2">
@@ -2650,7 +2710,7 @@
       <c r="A127" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="2">
@@ -2666,5 +2726,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>